--- a/Mifos Automation Excels/Client/4794-SUBMITSA01JAN2015(ACTPRD-30D&LCKINPRD-15)-ACT01JAN2015-Addshares15on01FEB2015-APPROVEADDSHARES.xlsx
+++ b/Mifos Automation Excels/Client/4794-SUBMITSA01JAN2015(ACTPRD-30D&LCKINPRD-15)-ACT01JAN2015-Addshares15on01FEB2015-APPROVEADDSHARES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,13 +956,11 @@
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="6">
-        <v>122</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
